--- a/src/test/resources/Documents/1070/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/1070/Actual/JobMaterial.xlsx
@@ -53,18 +53,36 @@
     <t>Flexo press Standard</t>
   </si>
   <si>
+    <t xml:space="preserve">PANTONE Yellow U  - UV - </t>
+  </si>
+  <si>
+    <t>6.34</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan - UV - </t>
+  </si>
+  <si>
+    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantone-1 - UV - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - UV - </t>
+  </si>
+  <si>
+    <t>10001305 - PROCESS YELLOW C UV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magenta - UV - </t>
   </si>
   <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
   </si>
   <si>
@@ -72,24 +90,6 @@
   </si>
   <si>
     <t>10001817 - 9409 MIXING BLACK UV - INK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan - UV - </t>
-  </si>
-  <si>
-    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantone-1 - UV - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANTONE Yellow U  - UV - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow - UV - </t>
-  </si>
-  <si>
-    <t>10001305 - PROCESS YELLOW C UV</t>
   </si>
   <si>
     <t xml:space="preserve">Photopolymer Plate </t>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="14">
         <v>14</v>
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="22">
         <v>14</v>
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="25">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s" s="45">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s" s="46">
         <v>14</v>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="49">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
